--- a/fedml/src/main/java/nl/tudelft/trustchain/fedml/ai/gar/ProBristleTest new.xlsx
+++ b/fedml/src/main/java/nl/tudelft/trustchain/fedml/ai/gar/ProBristleTest new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jverb\StudioProjects\trustchain-superapp\fedml\src\main\java\nl\tudelft\trustchain\fedml\ai\gar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ED68DC-DEBE-4CAD-90C6-75EACAE2F9CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761E1A07-EB7D-4144-B025-9A72EEA02E08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{844211C3-7185-423C-9B06-879ED161A981}"/>
+    <workbookView xWindow="10020" yWindow="6900" windowWidth="17355" windowHeight="13350" xr2:uid="{844211C3-7185-423C-9B06-879ED161A981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
   <si>
     <t>own loss</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>certainty</t>
   </si>
 </sst>
 </file>
@@ -412,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E1C72C-1D05-4355-8DCC-C2D9B80FA9B3}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.140625" customWidth="1"/>
   </cols>
@@ -1007,20 +1010,20 @@
         <v>0</v>
       </c>
       <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>0.5</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
       </c>
       <c r="F26">
         <f>SUM(B26:D26)</f>
-        <v>0.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1028,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
@@ -1050,15 +1053,15 @@
       </c>
       <c r="B29">
         <f>ABS(B28-B$26) * 10</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <f t="shared" ref="C29:D29" si="8">ABS(C28-C$26) * 10</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>1.0000000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1067,225 +1070,297 @@
       </c>
       <c r="B30">
         <f>MAX(-100, IF(B28&gt;B$26, POWER(B29, 3 + B26), -POWER(B29, 4+B26)))</f>
-        <v>-22.627416997969519</v>
+        <v>-100</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:D30" si="9">MAX(-100, IF(C28&gt;C$26, POWER(C29, 3 + C26), -POWER(C29, 4+C26)))</f>
-        <v>1000</v>
+        <f t="shared" ref="C30:D31" si="9">MAX(-100, IF(C28&gt;C$26, POWER(C29, 3 + C26), -POWER(C29, 4+C26)))</f>
+        <v>279.50849718747372</v>
       </c>
       <c r="D30">
         <f t="shared" si="9"/>
-        <v>1000</v>
+        <v>-1.0000000000000042</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
       </c>
       <c r="F30">
         <f>MAX(-1000, SUM(B30:D30))</f>
-        <v>1977.3725830020305</v>
+        <v>178.50849718747372</v>
       </c>
       <c r="H30" t="s">
         <v>7</v>
       </c>
       <c r="I30">
         <f xml:space="preserve"> MAX(0, AVERAGE(B28:D28) - _xlfn.STDEV.P(B28:D28) * 2)</f>
-        <v>0.10670033755922215</v>
+        <v>0.42673203242714719</v>
       </c>
       <c r="J30" t="s">
         <v>2</v>
       </c>
       <c r="K30">
         <f>MAX((1/(1+EXP(-F30/100)))*10-4, 0) * I30</f>
-        <v>0.64020202259764059</v>
+        <v>1.9472790663619195</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <f>MAX((1/(1+EXP(-B30/100)))*10-4, 0)</f>
-        <v>0.43671587230423548</v>
+        <f>IF(B29&gt;B$26, POWER(B30, 3 + B27), -POWER(B30, 4+B27))</f>
+        <v>-1000000</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:D31" si="10">MAX((1/(1+EXP(-C30/100)))*10-4, 0)</f>
-        <v>5.9995460213129768</v>
+        <f>MAX(-100, IF(C28&gt;C$26, POWER(C29, 3 + C26), -POWER(C29, 4+C26)))</f>
+        <v>279.50849718747372</v>
       </c>
       <c r="D31">
+        <f t="shared" si="9"/>
+        <v>-1.0000000000000127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <f>MAX(-1000, SUM(B31:D31))</f>
+        <v>-1000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <f xml:space="preserve"> MAX(0, AVERAGE(B28:D28) - _xlfn.STDEV.P(B28:D28) * 2)</f>
+        <v>0.42673203242714719</v>
+      </c>
+      <c r="J31" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <f>MAX((1/(1+EXP(-F31/100)))*10-4, 0) * I31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <f>MIN(1, (B28-0.2)*4)</f>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:D32" si="10">MIN(1, (C28-0.2)*4)</f>
+        <v>1</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="10"/>
-        <v>5.9995460213129768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <f>MAX((1/(1+EXP(-B30/100)))*10-4, 0) * B32</f>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <f t="shared" ref="C33:D33" si="11">MAX((1/(1+EXP(-C30/100)))*10-4, 0) * C32</f>
+        <v>5.4240964664375291</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <f>ABS(B33-B$1)*10*IF(B26&gt;=B33, AVERAGE($B$1:$K$1), 1)</f>
-        <v>3.0000000000000004</v>
-      </c>
-      <c r="C34">
-        <f>ABS(C33-C$1)*10*IF(C26&gt;=C33, AVERAGE($B$1:$K$1), 1)</f>
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <f>ABS(D33-D$1)*10*IF(D26&gt;=D33, AVERAGE($B$1:$K$1), 1)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.97500020833124967</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <f>MAX(0, 2*(B$1-B$3))</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C34:D35" si="11">MAX(0, 2*(C$1-C$3))</f>
-        <v>0.19999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="D35">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <f>IF(B33&gt;B$1, POWER(B34, 2+B$1*1.5), -POWER(B34, 3+B$1*1.5)*(1+B35))</f>
-        <v>28.524617330837529</v>
+        <f>ABS(B35-B$26) * 10</f>
+        <v>7</v>
       </c>
       <c r="C36">
-        <f>IF(C33&gt;C$1, POWER(C34, 2+C$1*1.5), -POWER(C34, 3+C$1*1.5)*(1+C35))</f>
-        <v>0</v>
+        <f t="shared" ref="C36:D36" si="12">ABS(C35-C$26) * 10</f>
+        <v>2</v>
       </c>
       <c r="D36">
-        <f>IF(D33&gt;D$1, POWER(D34, 2+D$1*1.5), -POWER(D34, 3+D$1*1.5)*(1+D35))</f>
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <f>MAX(-1000, SUM(B36:D36))</f>
-        <v>28.524617330837529</v>
-      </c>
-      <c r="H36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36">
-        <f xml:space="preserve"> MAX(0, AVERAGE(B33:K33) - _xlfn.STDEV.P(B33:K33) * 2)</f>
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K36">
-        <f>MAX((1/(1+EXP(-F36/100)))*10-4, 0) * I36</f>
-        <v>1.7083192118175328</v>
+        <f t="shared" si="12"/>
+        <v>1.9999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <f>MAX(0, 2*(B$26-B$28))</f>
+        <v>0.8</v>
+      </c>
+      <c r="C37">
+        <f>MAX(0, 2*(C$26-C$28))</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>MAX(0, 2*(D$26-D$28))</f>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <f>MAX(-100, IF(B35&gt;B$26, POWER(B36, 3 + B26), -POWER(B36, 4+B26)*(1+B37)))</f>
+        <v>-100</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <f t="shared" ref="C38:D38" si="13">MAX(-100, IF(C35&gt;C$26, POWER(C36, 3 + C26), -POWER(C36, 4+C26)*(1+C37)))</f>
+        <v>-22.627416997969519</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>13.928809012737972</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <f>MAX(-1000, SUM(B38:D38))</f>
+        <v>-108.69860798523155</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <f xml:space="preserve"> MAX(0, AVERAGE(B35:K35) - _xlfn.STDEV.P(B35:K35) * 2)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <f>MAX((1/(1+EXP(-F38/100)))*10-4, 0) * I38</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <f>ABS(B38-B$1)*10*IF(B26&gt;=B38, AVERAGE($B26:$K26), 1)</f>
-        <v>3.0000000000000004</v>
+        <f>MAX((1/(1+EXP(-B38/100)))*10-4, 0)</f>
+        <v>0</v>
       </c>
       <c r="C39">
-        <f>ABS(C38-C$1)*10*IF(C26&gt;=C38, AVERAGE($B26:$K26), 1)</f>
-        <v>0</v>
+        <f t="shared" ref="C39:D39" si="14">MAX((1/(1+EXP(-C38/100)))*10-4, 0)</f>
+        <v>0.43671587230423548</v>
       </c>
       <c r="D39">
-        <f>ABS(D38-D$1)*10*IF(D26&gt;=D38, AVERAGE($B26:$K26), 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40">
-        <f>MAX(0, 2*(B$1+B$1-B$3-B$7))</f>
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C39:D40" si="12">MAX(0, 2*(C$1+C$1-C$3-C$7))</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1.3476583254030396</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <f>ABS(B41-B$1)*10*IF(B26&gt;=B41, AVERAGE($B26:$K26), 1)</f>
+        <v>3.45</v>
+      </c>
+      <c r="C42">
+        <f>ABS(C41-C$1)*10*IF(C26&gt;=C41, AVERAGE($B26:$K26), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f>ABS(D41-D$1)*10*IF(D26&gt;=D41, AVERAGE($B26:$K26), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <f>MAX(0, 2*(B$1+B$1-B$3-B$7))</f>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:D43" si="15">MAX(0, 2*(C$1+C$1-C$3-C$7))</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B41">
-        <f>IF(B38&gt;B$1, POWER(B39, 2+B$1*1.5), -POWER(B39, 3+B$1*1.5)*(1+B40))</f>
-        <v>28.524617330837529</v>
-      </c>
-      <c r="C41">
-        <f>IF(C38&gt;C$1, POWER(C39, 2+C$1*1.5), -POWER(C39, 3+C$1*1.5)*(1+C40))</f>
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <f>IF(D38&gt;D$1, POWER(D39, 2+D$1*1.5), -POWER(D39, 3+D$1*1.5)*(1+D40))</f>
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="B44">
+        <f>IF(B41&gt;B$1, POWER(B42, 2+B$1*1.5), -POWER(B42, 3+B$1*1.5)*(1+B43))</f>
+        <v>43.686599377837688</v>
+      </c>
+      <c r="C44">
+        <f>IF(C41&gt;C$1, POWER(C42, 2+C$1*1.5), -POWER(C42, 3+C$1*1.5)*(1+C43))</f>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f>IF(D41&gt;D$1, POWER(D42, 2+D$1*1.5), -POWER(D42, 3+D$1*1.5)*(1+D43))</f>
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
         <v>3</v>
       </c>
-      <c r="F41">
-        <f>MAX(-1000, SUM(B41:D41))</f>
-        <v>28.524617330837529</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="F44">
+        <f>MAX(-1000, SUM(B44:D44))</f>
+        <v>43.686599377837688</v>
+      </c>
+      <c r="H44" t="s">
         <v>7</v>
       </c>
-      <c r="I41">
-        <f xml:space="preserve"> MAX(0, AVERAGE(B38:K38) - _xlfn.STDEV.P(B38:K38) * 2)</f>
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="I44">
+        <f xml:space="preserve"> MAX(0, AVERAGE(B41:K41) - _xlfn.STDEV.P(B41:K41) * 2)</f>
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
         <v>2</v>
       </c>
-      <c r="K41">
-        <f>MAX((1/(1+EXP(-F41/100)))*10-4, 0) * I41</f>
-        <v>1.7083192118175328</v>
+      <c r="K44">
+        <f>MAX((1/(1+EXP(-F44/100)))*10-4, 0) * I44</f>
+        <v>2.0751200695748144</v>
       </c>
     </row>
   </sheetData>

--- a/fedml/src/main/java/nl/tudelft/trustchain/fedml/ai/gar/ProBristleTest new.xlsx
+++ b/fedml/src/main/java/nl/tudelft/trustchain/fedml/ai/gar/ProBristleTest new.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jverb\StudioProjects\trustchain-superapp\fedml\src\main\java\nl\tudelft\trustchain\fedml\ai\gar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761E1A07-EB7D-4144-B025-9A72EEA02E08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C080D4B9-42D8-498D-9B7C-32990AA2C54C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="6900" windowWidth="17355" windowHeight="13350" xr2:uid="{844211C3-7185-423C-9B06-879ED161A981}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{844211C3-7185-423C-9B06-879ED161A981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -418,7 +419,7 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,20 +1011,20 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C26">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
       </c>
       <c r="F26">
         <f>SUM(B26:D26)</f>
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1034,17 +1035,17 @@
         <v>0.6</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D28">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28">
         <f>SUM(B28:D28)</f>
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1053,15 +1054,15 @@
       </c>
       <c r="B29">
         <f>ABS(B28-B$26) * 10</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:D29" si="8">ABS(C28-C$26) * 10</f>
-        <v>5</v>
+        <f>ABS(C28-C$26) * 10</f>
+        <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="8"/>
-        <v>1.0000000000000009</v>
+        <f>ABS(D28-D$26) * 10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1070,36 +1071,36 @@
       </c>
       <c r="B30">
         <f>MAX(-100, IF(B28&gt;B$26, POWER(B29, 3 + B26), -POWER(B29, 4+B26)))</f>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:D31" si="9">MAX(-100, IF(C28&gt;C$26, POWER(C29, 3 + C26), -POWER(C29, 4+C26)))</f>
-        <v>279.50849718747372</v>
+        <f>MAX(-100, IF(C28&gt;C$26, POWER(C29, 3 + C26), -POWER(C29, 4+C26)))</f>
+        <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="9"/>
-        <v>-1.0000000000000042</v>
+        <f>MAX(-100, IF(D28&gt;D$26, POWER(D29, 3 + D26), -POWER(D29, 4+D26)))</f>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
       </c>
       <c r="F30">
         <f>MAX(-1000, SUM(B30:D30))</f>
-        <v>178.50849718747372</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
         <v>7</v>
       </c>
       <c r="I30">
         <f xml:space="preserve"> MAX(0, AVERAGE(B28:D28) - _xlfn.STDEV.P(B28:D28) * 2)</f>
-        <v>0.42673203242714719</v>
+        <v>0.49339869909381451</v>
       </c>
       <c r="J30" t="s">
         <v>2</v>
       </c>
       <c r="K30">
         <f>MAX((1/(1+EXP(-F30/100)))*10-4, 0) * I30</f>
-        <v>1.9472790663619195</v>
+        <v>0.49339869909381451</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1108,36 +1109,36 @@
       </c>
       <c r="B31">
         <f>IF(B29&gt;B$26, POWER(B30, 3 + B27), -POWER(B30, 4+B27))</f>
-        <v>-1000000</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <f>MAX(-100, IF(C28&gt;C$26, POWER(C29, 3 + C26), -POWER(C29, 4+C26)))</f>
-        <v>279.50849718747372</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" si="9"/>
-        <v>-1.0000000000000127</v>
+        <f>MAX(-100, IF(D29&gt;D$26, POWER(D30, 3 + D27), -POWER(D30, 4+D27)))</f>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31">
         <f>MAX(-1000, SUM(B31:D31))</f>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
         <v>7</v>
       </c>
       <c r="I31">
         <f xml:space="preserve"> MAX(0, AVERAGE(B28:D28) - _xlfn.STDEV.P(B28:D28) * 2)</f>
-        <v>0.42673203242714719</v>
+        <v>0.49339869909381451</v>
       </c>
       <c r="J31" t="s">
         <v>2</v>
       </c>
       <c r="K31">
         <f>MAX((1/(1+EXP(-F31/100)))*10-4, 0) * I31</f>
-        <v>0</v>
+        <v>0.49339869909381451</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1149,11 +1150,11 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:D32" si="10">MIN(1, (C28-0.2)*4)</f>
+        <f>MIN(1, (C28-0.2)*4)</f>
         <v>1</v>
       </c>
       <c r="D32">
-        <f t="shared" si="10"/>
+        <f>MIN(1, (D28-0.2)*4)</f>
         <v>1</v>
       </c>
     </row>
@@ -1163,15 +1164,15 @@
       </c>
       <c r="B33">
         <f>MAX((1/(1+EXP(-B30/100)))*10-4, 0) * B32</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:D33" si="11">MAX((1/(1+EXP(-C30/100)))*10-4, 0) * C32</f>
-        <v>5.4240964664375291</v>
+        <f>MAX((1/(1+EXP(-C30/100)))*10-4, 0) * C32</f>
+        <v>1</v>
       </c>
       <c r="D33">
-        <f t="shared" si="11"/>
-        <v>0.97500020833124967</v>
+        <f>MAX((1/(1+EXP(-D30/100)))*10-4, 0) * D32</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1194,15 +1195,15 @@
       </c>
       <c r="B36">
         <f>ABS(B35-B$26) * 10</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:D36" si="12">ABS(C35-C$26) * 10</f>
-        <v>2</v>
+        <f>ABS(C35-C$26) * 10</f>
+        <v>6.0000000000000009</v>
       </c>
       <c r="D36">
-        <f t="shared" si="12"/>
-        <v>1.9999999999999996</v>
+        <f>ABS(D35-D$26) * 10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1211,7 +1212,7 @@
       </c>
       <c r="B37">
         <f>MAX(0, 2*(B$26-B$28))</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <f>MAX(0, 2*(C$26-C$28))</f>
@@ -1219,7 +1220,7 @@
       </c>
       <c r="D37">
         <f>MAX(0, 2*(D$26-D$28))</f>
-        <v>0.20000000000000018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1231,19 +1232,19 @@
         <v>-100</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:D38" si="13">MAX(-100, IF(C35&gt;C$26, POWER(C36, 3 + C26), -POWER(C36, 4+C26)*(1+C37)))</f>
-        <v>-22.627416997969519</v>
+        <f>MAX(-100, IF(C35&gt;C$26, POWER(C36, 3 + C26), -POWER(C36, 4+C26)*(1+C37)))</f>
+        <v>-100</v>
       </c>
       <c r="D38">
-        <f t="shared" si="13"/>
-        <v>13.928809012737972</v>
+        <f>MAX(-100, IF(D35&gt;D$26, POWER(D36, 3 + D26), -POWER(D36, 4+D26)*(1+D37)))</f>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
       </c>
       <c r="F38">
         <f>MAX(-1000, SUM(B38:D38))</f>
-        <v>-108.69860798523155</v>
+        <v>-200</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
@@ -1269,12 +1270,12 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:D39" si="14">MAX((1/(1+EXP(-C38/100)))*10-4, 0)</f>
-        <v>0.43671587230423548</v>
+        <f>MAX((1/(1+EXP(-C38/100)))*10-4, 0)</f>
+        <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" si="14"/>
-        <v>1.3476583254030396</v>
+        <f>MAX((1/(1+EXP(-D38/100)))*10-4, 0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1297,7 +1298,7 @@
       </c>
       <c r="B42">
         <f>ABS(B41-B$1)*10*IF(B26&gt;=B41, AVERAGE($B26:$K26), 1)</f>
-        <v>3.45</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="C42">
         <f>ABS(C41-C$1)*10*IF(C26&gt;=C41, AVERAGE($B26:$K26), 1)</f>
@@ -1317,11 +1318,11 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:D43" si="15">MAX(0, 2*(C$1+C$1-C$3-C$7))</f>
+        <f>MAX(0, 2*(C$1+C$1-C$3-C$7))</f>
         <v>0.20000000000000018</v>
       </c>
       <c r="D43">
-        <f t="shared" si="15"/>
+        <f>MAX(0, 2*(D$1+D$1-D$3-D$7))</f>
         <v>0</v>
       </c>
     </row>
@@ -1331,7 +1332,7 @@
       </c>
       <c r="B44">
         <f>IF(B41&gt;B$1, POWER(B42, 2+B$1*1.5), -POWER(B42, 3+B$1*1.5)*(1+B43))</f>
-        <v>43.686599377837688</v>
+        <v>28.524617330837529</v>
       </c>
       <c r="C44">
         <f>IF(C41&gt;C$1, POWER(C42, 2+C$1*1.5), -POWER(C42, 3+C$1*1.5)*(1+C43))</f>
@@ -1346,7 +1347,7 @@
       </c>
       <c r="F44">
         <f>MAX(-1000, SUM(B44:D44))</f>
-        <v>43.686599377837688</v>
+        <v>28.524617330837529</v>
       </c>
       <c r="H44" t="s">
         <v>7</v>
@@ -1360,7 +1361,7 @@
       </c>
       <c r="K44">
         <f>MAX((1/(1+EXP(-F44/100)))*10-4, 0) * I44</f>
-        <v>2.0751200695748144</v>
+        <v>1.7083192118175328</v>
       </c>
     </row>
   </sheetData>

--- a/fedml/src/main/java/nl/tudelft/trustchain/fedml/ai/gar/ProBristleTest new.xlsx
+++ b/fedml/src/main/java/nl/tudelft/trustchain/fedml/ai/gar/ProBristleTest new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jverb\StudioProjects\trustchain-superapp\fedml\src\main\java\nl\tudelft\trustchain\fedml\ai\gar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C080D4B9-42D8-498D-9B7C-32990AA2C54C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141E253F-8931-4286-9B67-8441B2902ABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{844211C3-7185-423C-9B06-879ED161A981}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
   <si>
     <t>own loss</t>
   </si>
@@ -416,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E1C72C-1D05-4355-8DCC-C2D9B80FA9B3}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0.9</v>
@@ -1024,7 +1023,7 @@
       </c>
       <c r="F26">
         <f>SUM(B26:D26)</f>
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1032,20 +1031,20 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0.9</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28">
         <f>SUM(B28:D28)</f>
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1062,45 +1061,21 @@
       </c>
       <c r="D29">
         <f>ABS(D28-D$26) * 10</f>
-        <v>0</v>
+        <v>1.9999999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <f>MAX(-100, IF(B28&gt;B$26, POWER(B29, 3 + B26), -POWER(B29, 4+B26)))</f>
         <v>0</v>
       </c>
       <c r="C30">
-        <f>MAX(-100, IF(C28&gt;C$26, POWER(C29, 3 + C26), -POWER(C29, 4+C26)))</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f>MAX(-100, IF(D28&gt;D$26, POWER(D29, 3 + D26), -POWER(D29, 4+D26)))</f>
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <f>MAX(-1000, SUM(B30:D30))</f>
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30">
-        <f xml:space="preserve"> MAX(0, AVERAGE(B28:D28) - _xlfn.STDEV.P(B28:D28) * 2)</f>
-        <v>0.49339869909381451</v>
-      </c>
-      <c r="J30" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30">
-        <f>MAX((1/(1+EXP(-F30/100)))*10-4, 0) * I30</f>
-        <v>0.49339869909381451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1108,260 +1083,298 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <f>IF(B29&gt;B$26, POWER(B30, 3 + B27), -POWER(B30, 4+B27))</f>
+        <f t="shared" ref="B31:C31" si="8">MAX(-100, IF(B28&gt;B$26, POWER(B29, 3 + B26), -POWER(B29, 4+B26)*(1+B30)))</f>
         <v>0</v>
       </c>
       <c r="C31">
-        <f>MAX(-100, IF(C28&gt;C$26, POWER(C29, 3 + C26), -POWER(C29, 4+C26)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D31">
-        <f>MAX(-100, IF(D29&gt;D$26, POWER(D30, 3 + D27), -POWER(D30, 4+D27)))</f>
-        <v>0</v>
+        <f>MAX(-100, IF(D28&gt;D$26, POWER(D29, 3 + D26), -POWER(D29, 4+D26)*(1+D30)))</f>
+        <v>-31.999999999999964</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31">
         <f>MAX(-1000, SUM(B31:D31))</f>
-        <v>0</v>
+        <v>-31.999999999999964</v>
       </c>
       <c r="H31" t="s">
         <v>7</v>
       </c>
       <c r="I31">
         <f xml:space="preserve"> MAX(0, AVERAGE(B28:D28) - _xlfn.STDEV.P(B28:D28) * 2)</f>
-        <v>0.49339869909381451</v>
+        <v>0.73670068381445486</v>
       </c>
       <c r="J31" t="s">
         <v>2</v>
       </c>
       <c r="K31">
         <f>MAX((1/(1+EXP(-F31/100)))*10-4, 0) * I31</f>
-        <v>0.49339869909381451</v>
+        <v>0.15231837580391541</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <f>MIN(1, (B28-0.2)*4)</f>
-        <v>1</v>
+        <f t="shared" ref="B32:C32" si="9">MAX(-100, IF(B28&gt;B$26, POWER(B29, 3 + B26), -POWER(B29, 4+B26)*(1+B30)))</f>
+        <v>0</v>
       </c>
       <c r="C32">
-        <f>MIN(1, (C28-0.2)*4)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="D32">
-        <f>MIN(1, (D28-0.2)*4)</f>
-        <v>1</v>
+        <f>MAX(-100, IF(D28&gt;D$26, POWER(D29, 3 + D26), -POWER(D29, 4+D26)*(1+D30)))</f>
+        <v>-31.999999999999964</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <f>MAX(-1000, SUM(B32:D32))</f>
+        <v>-31.999999999999964</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <f xml:space="preserve"> MAX(0, AVERAGE(B28:D28) - _xlfn.STDEV.P(B28:D28) * 2)</f>
+        <v>0.73670068381445486</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <f>MAX((1/(1+EXP(-F32/100)))*10-4, 0) * I32</f>
+        <v>0.15231837580391541</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <f>MIN(1, (B28-0.2)*4)</f>
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f>MIN(1, (C28-0.2)*4)</f>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f>MIN(1, (D28-0.2)*4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B33">
-        <f>MAX((1/(1+EXP(-B30/100)))*10-4, 0) * B32</f>
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <f>MAX((1/(1+EXP(-C30/100)))*10-4, 0) * C32</f>
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <f>MAX((1/(1+EXP(-D30/100)))*10-4, 0) * D32</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>0.3</v>
-      </c>
-      <c r="C35">
-        <v>0.3</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
+      <c r="B34">
+        <f>MAX((1/(1+EXP(-B31/100)))*10-4, 0) * B33</f>
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f>MAX((1/(1+EXP(-C31/100)))*10-4, 0) * C33</f>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f>MAX((1/(1+EXP(-D31/100)))*10-4, 0) * D33</f>
+        <v>0.2067574785125057</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <f>ABS(B35-B$26) * 10</f>
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="C36">
-        <f>ABS(C35-C$26) * 10</f>
-        <v>6.0000000000000009</v>
+        <v>0.3</v>
       </c>
       <c r="D36">
-        <f>ABS(D35-D$26) * 10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <f>MAX(0, 2*(B$26-B$28))</f>
-        <v>0</v>
+        <f>ABS(B36-B$26) * 10</f>
+        <v>7</v>
       </c>
       <c r="C37">
-        <f>MAX(0, 2*(C$26-C$28))</f>
-        <v>0</v>
+        <f>ABS(C36-C$26) * 10</f>
+        <v>6.0000000000000009</v>
       </c>
       <c r="D37">
-        <f>MAX(0, 2*(D$26-D$28))</f>
+        <f>ABS(D36-D$26) * 10</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <f>MAX(-100, IF(B35&gt;B$26, POWER(B36, 3 + B26), -POWER(B36, 4+B26)*(1+B37)))</f>
-        <v>-100</v>
+        <f>MAX(0, 2*(B$26-B$28))</f>
+        <v>0</v>
       </c>
       <c r="C38">
-        <f>MAX(-100, IF(C35&gt;C$26, POWER(C36, 3 + C26), -POWER(C36, 4+C26)*(1+C37)))</f>
-        <v>-100</v>
+        <f>MAX(0, 2*(C$26-C$28))</f>
+        <v>0</v>
       </c>
       <c r="D38">
-        <f>MAX(-100, IF(D35&gt;D$26, POWER(D36, 3 + D26), -POWER(D36, 4+D26)*(1+D37)))</f>
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <f>MAX(-1000, SUM(B38:D38))</f>
-        <v>-200</v>
-      </c>
-      <c r="H38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38">
-        <f xml:space="preserve"> MAX(0, AVERAGE(B35:K35) - _xlfn.STDEV.P(B35:K35) * 2)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K38">
-        <f>MAX((1/(1+EXP(-F38/100)))*10-4, 0) * I38</f>
-        <v>0</v>
+        <f>MAX(0, 2*(D$26-D$28))</f>
+        <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <f>MAX(-100, IF(B36&gt;B$26, POWER(B37, 3 + B26), -POWER(B37, 4+B26)*(1+B38)))</f>
+        <v>-100</v>
+      </c>
+      <c r="C39">
+        <f>MAX(-100, IF(C36&gt;C$26, POWER(C37, 3 + C26), -POWER(C37, 4+C26)*(1+C38)))</f>
+        <v>-100</v>
+      </c>
+      <c r="D39">
+        <f>MAX(-100, IF(D36&gt;D$26, POWER(D37, 3 + D26), -POWER(D37, 4+D26)*(1+D38)))</f>
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f>MAX(-1000, SUM(B39:D39))</f>
+        <v>-200</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <f xml:space="preserve"> MAX(0, AVERAGE(B36:K36) - _xlfn.STDEV.P(B36:K36) * 2)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <f>MAX((1/(1+EXP(-F39/100)))*10-4, 0) * I39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="B39">
-        <f>MAX((1/(1+EXP(-B38/100)))*10-4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <f>MAX((1/(1+EXP(-C38/100)))*10-4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <f>MAX((1/(1+EXP(-D38/100)))*10-4, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
+      <c r="B40">
+        <f>MAX((1/(1+EXP(-B39/100)))*10-4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>MAX((1/(1+EXP(-C39/100)))*10-4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>MAX((1/(1+EXP(-D39/100)))*10-4, 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <f>ABS(B41-B$1)*10*IF(B26&gt;=B41, AVERAGE($B26:$K26), 1)</f>
-        <v>3.0000000000000004</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <f>ABS(C41-C$1)*10*IF(C26&gt;=C41, AVERAGE($B26:$K26), 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <f>ABS(D41-D$1)*10*IF(D26&gt;=D41, AVERAGE($B26:$K26), 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <f>ABS(B42-B$1)*10*IF(B26&gt;=B42, AVERAGE($B26:$K26), 1)</f>
+        <v>4.3500000000000005</v>
+      </c>
+      <c r="C43">
+        <f>ABS(C42-C$1)*10*IF(C26&gt;=C42, AVERAGE($B26:$K26), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>ABS(D42-D$1)*10*IF(D26&gt;=D42, AVERAGE($B26:$K26), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <f>MAX(0, 2*(B$1+B$1-B$3-B$7))</f>
         <v>0</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <f>MAX(0, 2*(C$1+C$1-C$3-C$7))</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <f>MAX(0, 2*(D$1+D$1-D$3-D$7))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="B44">
-        <f>IF(B41&gt;B$1, POWER(B42, 2+B$1*1.5), -POWER(B42, 3+B$1*1.5)*(1+B43))</f>
-        <v>28.524617330837529</v>
-      </c>
-      <c r="C44">
-        <f>IF(C41&gt;C$1, POWER(C42, 2+C$1*1.5), -POWER(C42, 3+C$1*1.5)*(1+C43))</f>
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <f>IF(D41&gt;D$1, POWER(D42, 2+D$1*1.5), -POWER(D42, 3+D$1*1.5)*(1+D43))</f>
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="B45">
+        <f>IF(B42&gt;B$1, POWER(B43, 2+B$1*1.5), -POWER(B43, 3+B$1*1.5)*(1+B44))</f>
+        <v>88.591536441464001</v>
+      </c>
+      <c r="C45">
+        <f>IF(C42&gt;C$1, POWER(C43, 2+C$1*1.5), -POWER(C43, 3+C$1*1.5)*(1+C44))</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>IF(D42&gt;D$1, POWER(D43, 2+D$1*1.5), -POWER(D43, 3+D$1*1.5)*(1+D44))</f>
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
         <v>3</v>
       </c>
-      <c r="F44">
-        <f>MAX(-1000, SUM(B44:D44))</f>
-        <v>28.524617330837529</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="F45">
+        <f>MAX(-1000, SUM(B45:D45))</f>
+        <v>88.591536441464001</v>
+      </c>
+      <c r="H45" t="s">
         <v>7</v>
       </c>
-      <c r="I44">
-        <f xml:space="preserve"> MAX(0, AVERAGE(B41:K41) - _xlfn.STDEV.P(B41:K41) * 2)</f>
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="I45">
+        <f xml:space="preserve"> MAX(0, AVERAGE(B42:K42) - _xlfn.STDEV.P(B42:K42) * 2)</f>
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
         <v>2</v>
       </c>
-      <c r="K44">
-        <f>MAX((1/(1+EXP(-F44/100)))*10-4, 0) * I44</f>
-        <v>1.7083192118175328</v>
+      <c r="K45">
+        <f>MAX((1/(1+EXP(-F45/100)))*10-4, 0) * I45</f>
+        <v>3.0804652851105851</v>
       </c>
     </row>
   </sheetData>

--- a/fedml/src/main/java/nl/tudelft/trustchain/fedml/ai/gar/ProBristleTest new.xlsx
+++ b/fedml/src/main/java/nl/tudelft/trustchain/fedml/ai/gar/ProBristleTest new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jverb\StudioProjects\trustchain-superapp\fedml\src\main\java\nl\tudelft\trustchain\fedml\ai\gar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141E253F-8931-4286-9B67-8441B2902ABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772ACE91-5BBF-4A1F-9953-914014F6364D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{844211C3-7185-423C-9B06-879ED161A981}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t>own loss</t>
   </si>
@@ -415,14 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E1C72C-1D05-4355-8DCC-C2D9B80FA9B3}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.140625" customWidth="1"/>
@@ -1013,17 +1014,17 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
       </c>
       <c r="F26">
         <f>SUM(B26:D26)</f>
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1031,20 +1032,20 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C28">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28">
         <f>SUM(B28:D28)</f>
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1053,15 +1054,15 @@
       </c>
       <c r="B29">
         <f>ABS(B28-B$26) * 10</f>
-        <v>0</v>
+        <v>1.9999999999999996</v>
       </c>
       <c r="C29">
         <f>ABS(C28-C$26) * 10</f>
-        <v>0</v>
+        <v>1.9999999999999996</v>
       </c>
       <c r="D29">
         <f>ABS(D28-D$26) * 10</f>
-        <v>1.9999999999999996</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1084,297 +1085,259 @@
       </c>
       <c r="B31">
         <f t="shared" ref="B31:C31" si="8">MAX(-100, IF(B28&gt;B$26, POWER(B29, 3 + B26), -POWER(B29, 4+B26)*(1+B30)))</f>
-        <v>0</v>
+        <v>-31.999999999999964</v>
       </c>
       <c r="C31">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>13.928809012737972</v>
       </c>
       <c r="D31">
         <f>MAX(-100, IF(D28&gt;D$26, POWER(D29, 3 + D26), -POWER(D29, 4+D26)*(1+D30)))</f>
-        <v>-31.999999999999964</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31">
         <f>MAX(-1000, SUM(B31:D31))</f>
-        <v>-31.999999999999964</v>
+        <v>8.9288090127380073</v>
       </c>
       <c r="H31" t="s">
         <v>7</v>
       </c>
       <c r="I31">
         <f xml:space="preserve"> MAX(0, AVERAGE(B28:D28) - _xlfn.STDEV.P(B28:D28) * 2)</f>
-        <v>0.73670068381445486</v>
+        <v>0.11121594224481013</v>
       </c>
       <c r="J31" t="s">
         <v>2</v>
       </c>
       <c r="K31">
         <f>MAX((1/(1+EXP(-F31/100)))*10-4, 0) * I31</f>
-        <v>0.15231837580391541</v>
+        <v>0.13602510981378829</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:C32" si="9">MAX(-100, IF(B28&gt;B$26, POWER(B29, 3 + B26), -POWER(B29, 4+B26)*(1+B30)))</f>
-        <v>0</v>
+        <f>MIN(1, (B28-0.2)*4)</f>
+        <v>1</v>
       </c>
       <c r="C32">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MIN(1, (C28-0.2)*4)</f>
+        <v>1</v>
       </c>
       <c r="D32">
-        <f>MAX(-100, IF(D28&gt;D$26, POWER(D29, 3 + D26), -POWER(D29, 4+D26)*(1+D30)))</f>
-        <v>-31.999999999999964</v>
-      </c>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <f>MAX(-1000, SUM(B32:D32))</f>
-        <v>-31.999999999999964</v>
-      </c>
-      <c r="H32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32">
-        <f xml:space="preserve"> MAX(0, AVERAGE(B28:D28) - _xlfn.STDEV.P(B28:D28) * 2)</f>
-        <v>0.73670068381445486</v>
-      </c>
-      <c r="J32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32">
-        <f>MAX((1/(1+EXP(-F32/100)))*10-4, 0) * I32</f>
-        <v>0.15231837580391541</v>
+        <f>MIN(1, (D28-0.2)*4)</f>
+        <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <f>MIN(1, (B28-0.2)*4)</f>
-        <v>1</v>
+        <f>MAX((1/(1+EXP(-B31/100)))*10-4, 0) * B32</f>
+        <v>0.2067574785125057</v>
       </c>
       <c r="C33">
-        <f>MIN(1, (C28-0.2)*4)</f>
-        <v>1</v>
+        <f>MAX((1/(1+EXP(-C31/100)))*10-4, 0) * C32</f>
+        <v>1.3476583254030396</v>
       </c>
       <c r="D33">
-        <f>MIN(1, (D28-0.2)*4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34">
-        <f>MAX((1/(1+EXP(-B31/100)))*10-4, 0) * B33</f>
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <f>MAX((1/(1+EXP(-C31/100)))*10-4, 0) * C33</f>
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f>MAX((1/(1+EXP(-D31/100)))*10-4, 0) * D33</f>
-        <v>0.2067574785125057</v>
+        <f>MAX((1/(1+EXP(-D31/100)))*10-4, 0) * D32</f>
+        <v>0.66837161986181692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0.3</v>
+      </c>
+      <c r="C35">
+        <v>0.3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>0.3</v>
+        <f>ABS(B35-B$26) * 10</f>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>0.3</v>
+        <f>ABS(C35-C$26) * 10</f>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <f>ABS(D35-D$26) * 10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <f>ABS(B36-B$26) * 10</f>
-        <v>7</v>
+        <f>MAX(0, 2*(B$26-B$28))</f>
+        <v>0.39999999999999991</v>
       </c>
       <c r="C37">
-        <f>ABS(C36-C$26) * 10</f>
-        <v>6.0000000000000009</v>
+        <f>MAX(0, 2*(C$26-C$28))</f>
+        <v>0</v>
       </c>
       <c r="D37">
-        <f>ABS(D36-D$26) * 10</f>
+        <f>MAX(0, 2*(D$26-D$28))</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <f>MAX(0, 2*(B$26-B$28))</f>
-        <v>0</v>
+        <f>MAX(-100, IF(B35&gt;B$26, POWER(B36, 3 + B26), -POWER(B36, 4+B26)*(1+B37)))</f>
+        <v>-100</v>
       </c>
       <c r="C38">
-        <f>MAX(0, 2*(C$26-C$28))</f>
-        <v>0</v>
+        <f>MAX(-100, IF(C35&gt;C$26, POWER(C36, 3 + C26), -POWER(C36, 4+C26)*(1+C37)))</f>
+        <v>-100</v>
       </c>
       <c r="D38">
-        <f>MAX(0, 2*(D$26-D$28))</f>
-        <v>0.39999999999999991</v>
+        <f>MAX(-100, IF(D35&gt;D$26, POWER(D36, 3 + D26), -POWER(D36, 4+D26)*(1+D37)))</f>
+        <v>1000</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <f>MAX(-1000, SUM(B38:D38))</f>
+        <v>800</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <f xml:space="preserve"> MAX(0, AVERAGE(B35:K35) - _xlfn.STDEV.P(B35:K35) * 2)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <f>MAX((1/(1+EXP(-F38/100)))*10-4, 0) * I38</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <f>MAX(-100, IF(B36&gt;B$26, POWER(B37, 3 + B26), -POWER(B37, 4+B26)*(1+B38)))</f>
-        <v>-100</v>
+        <f>MAX((1/(1+EXP(-B38/100)))*10-4, 0)</f>
+        <v>0</v>
       </c>
       <c r="C39">
-        <f>MAX(-100, IF(C36&gt;C$26, POWER(C37, 3 + C26), -POWER(C37, 4+C26)*(1+C38)))</f>
-        <v>-100</v>
+        <f>MAX((1/(1+EXP(-C38/100)))*10-4, 0)</f>
+        <v>0</v>
       </c>
       <c r="D39">
-        <f>MAX(-100, IF(D36&gt;D$26, POWER(D37, 3 + D26), -POWER(D37, 4+D26)*(1+D38)))</f>
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <f>MAX(-1000, SUM(B39:D39))</f>
-        <v>-200</v>
-      </c>
-      <c r="H39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39">
-        <f xml:space="preserve"> MAX(0, AVERAGE(B36:K36) - _xlfn.STDEV.P(B36:K36) * 2)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K39">
-        <f>MAX((1/(1+EXP(-F39/100)))*10-4, 0) * I39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <f>MAX((1/(1+EXP(-B39/100)))*10-4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <f>MAX((1/(1+EXP(-C39/100)))*10-4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <f>MAX((1/(1+EXP(-D39/100)))*10-4, 0)</f>
+        <f>MAX((1/(1+EXP(-D38/100)))*10-4, 0)</f>
+        <v>5.9995460213129768</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <f>ABS(B41-B$1)*10*IF(B26&gt;=B41, AVERAGE($B26:$K26), 1)</f>
+        <v>2.7000000000000006</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <f>ABS(C41-C$1)*10*IF(C26&gt;=C41, AVERAGE($B26:$K26), 1)</f>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <f>ABS(D41-D$1)*10*IF(D26&gt;=D41, AVERAGE($B26:$K26), 1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <f>ABS(B42-B$1)*10*IF(B26&gt;=B42, AVERAGE($B26:$K26), 1)</f>
-        <v>4.3500000000000005</v>
+        <f>MAX(0, 2*(B$1+B$1-B$3-B$7))</f>
+        <v>0</v>
       </c>
       <c r="C43">
-        <f>ABS(C42-C$1)*10*IF(C26&gt;=C42, AVERAGE($B26:$K26), 1)</f>
-        <v>0</v>
+        <f>MAX(0, 2*(C$1+C$1-C$3-C$7))</f>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D43">
-        <f>ABS(D42-D$1)*10*IF(D26&gt;=D42, AVERAGE($B26:$K26), 1)</f>
+        <f>MAX(0, 2*(D$1+D$1-D$3-D$7))</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44">
-        <f>MAX(0, 2*(B$1+B$1-B$3-B$7))</f>
-        <v>0</v>
+        <f>IF(B41&gt;B$1, POWER(B42, 2+B$1*1.5), -POWER(B42, 3+B$1*1.5)*(1+B43))</f>
+        <v>20.685188395038807</v>
       </c>
       <c r="C44">
-        <f>MAX(0, 2*(C$1+C$1-C$3-C$7))</f>
-        <v>0.20000000000000018</v>
+        <f>IF(C41&gt;C$1, POWER(C42, 2+C$1*1.5), -POWER(C42, 3+C$1*1.5)*(1+C43))</f>
+        <v>0</v>
       </c>
       <c r="D44">
-        <f>MAX(0, 2*(D$1+D$1-D$3-D$7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45">
-        <f>IF(B42&gt;B$1, POWER(B43, 2+B$1*1.5), -POWER(B43, 3+B$1*1.5)*(1+B44))</f>
-        <v>88.591536441464001</v>
-      </c>
-      <c r="C45">
-        <f>IF(C42&gt;C$1, POWER(C43, 2+C$1*1.5), -POWER(C43, 3+C$1*1.5)*(1+C44))</f>
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <f>IF(D42&gt;D$1, POWER(D43, 2+D$1*1.5), -POWER(D43, 3+D$1*1.5)*(1+D44))</f>
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
+        <f>IF(D41&gt;D$1, POWER(D42, 2+D$1*1.5), -POWER(D42, 3+D$1*1.5)*(1+D43))</f>
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
         <v>3</v>
       </c>
-      <c r="F45">
-        <f>MAX(-1000, SUM(B45:D45))</f>
-        <v>88.591536441464001</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="F44">
+        <f>MAX(-1000, SUM(B44:D44))</f>
+        <v>20.685188395038807</v>
+      </c>
+      <c r="H44" t="s">
         <v>7</v>
       </c>
-      <c r="I45">
-        <f xml:space="preserve"> MAX(0, AVERAGE(B42:K42) - _xlfn.STDEV.P(B42:K42) * 2)</f>
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="I44">
+        <f xml:space="preserve"> MAX(0, AVERAGE(B41:K41) - _xlfn.STDEV.P(B41:K41) * 2)</f>
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
         <v>2</v>
       </c>
-      <c r="K45">
-        <f>MAX((1/(1+EXP(-F45/100)))*10-4, 0) * I45</f>
-        <v>3.0804652851105851</v>
+      <c r="K44">
+        <f>MAX((1/(1+EXP(-F44/100)))*10-4, 0) * I44</f>
+        <v>1.5152936661628802</v>
       </c>
     </row>
   </sheetData>

--- a/fedml/src/main/java/nl/tudelft/trustchain/fedml/ai/gar/ProBristleTest new.xlsx
+++ b/fedml/src/main/java/nl/tudelft/trustchain/fedml/ai/gar/ProBristleTest new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jverb\StudioProjects\trustchain-superapp\fedml\src\main\java\nl\tudelft\trustchain\fedml\ai\gar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772ACE91-5BBF-4A1F-9953-914014F6364D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21131528-177D-424F-9625-FA7F6F486BBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{844211C3-7185-423C-9B06-879ED161A981}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{844211C3-7185-423C-9B06-879ED161A981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E1C72C-1D05-4355-8DCC-C2D9B80FA9B3}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="F26">
         <f>SUM(B26:D26)</f>
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1032,20 +1032,20 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D28">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28">
         <f>SUM(B28:D28)</f>
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1054,15 +1054,15 @@
       </c>
       <c r="B29">
         <f>ABS(B28-B$26) * 10</f>
-        <v>1.9999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <f>ABS(C28-C$26) * 10</f>
-        <v>1.9999999999999996</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <f>ABS(D28-D$26) * 10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1085,36 +1085,36 @@
       </c>
       <c r="B31">
         <f t="shared" ref="B31:C31" si="8">MAX(-100, IF(B28&gt;B$26, POWER(B29, 3 + B26), -POWER(B29, 4+B26)*(1+B30)))</f>
-        <v>-31.999999999999964</v>
+        <v>125</v>
       </c>
       <c r="C31">
         <f t="shared" si="8"/>
-        <v>13.928809012737972</v>
+        <v>125</v>
       </c>
       <c r="D31">
         <f>MAX(-100, IF(D28&gt;D$26, POWER(D29, 3 + D26), -POWER(D29, 4+D26)*(1+D30)))</f>
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31">
         <f>MAX(-1000, SUM(B31:D31))</f>
-        <v>8.9288090127380073</v>
+        <v>375</v>
       </c>
       <c r="H31" t="s">
         <v>7</v>
       </c>
       <c r="I31">
-        <f xml:space="preserve"> MAX(0, AVERAGE(B28:D28) - _xlfn.STDEV.P(B28:D28) * 2)</f>
-        <v>0.11121594224481013</v>
+        <f xml:space="preserve"> MAX(0, AVERAGE(B28:D28) - _xlfn.STDEV.P(B28:D28))</f>
+        <v>0.5</v>
       </c>
       <c r="J31" t="s">
         <v>2</v>
       </c>
       <c r="K31">
         <f>MAX((1/(1+EXP(-F31/100)))*10-4, 0) * I31</f>
-        <v>0.13602510981378829</v>
+        <v>2.8851131504498717</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D32">
         <f>MIN(1, (D28-0.2)*4)</f>
-        <v>0.39999999999999991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1140,15 +1140,15 @@
       </c>
       <c r="B33">
         <f>MAX((1/(1+EXP(-B31/100)))*10-4, 0) * B32</f>
-        <v>0.2067574785125057</v>
+        <v>3.7729986117469103</v>
       </c>
       <c r="C33">
         <f>MAX((1/(1+EXP(-C31/100)))*10-4, 0) * C32</f>
-        <v>1.3476583254030396</v>
+        <v>3.7729986117469103</v>
       </c>
       <c r="D33">
         <f>MAX((1/(1+EXP(-D31/100)))*10-4, 0) * D32</f>
-        <v>0.66837161986181692</v>
+        <v>3.7729986117469103</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0.3</v>
@@ -1171,11 +1171,11 @@
       </c>
       <c r="B36">
         <f>ABS(B35-B$26) * 10</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <f>ABS(C35-C$26) * 10</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36">
         <f>ABS(D35-D$26) * 10</f>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B37">
         <f>MAX(0, 2*(B$26-B$28))</f>
-        <v>0.39999999999999991</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <f>MAX(0, 2*(C$26-C$28))</f>
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B38">
         <f>MAX(-100, IF(B35&gt;B$26, POWER(B36, 3 + B26), -POWER(B36, 4+B26)*(1+B37)))</f>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <f>MAX(-100, IF(C35&gt;C$26, POWER(C36, 3 + C26), -POWER(C36, 4+C26)*(1+C37)))</f>
-        <v>-100</v>
+        <v>27</v>
       </c>
       <c r="D38">
         <f>MAX(-100, IF(D35&gt;D$26, POWER(D36, 3 + D26), -POWER(D36, 4+D26)*(1+D37)))</f>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="F38">
         <f>MAX(-1000, SUM(B38:D38))</f>
-        <v>800</v>
+        <v>1027</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
@@ -1243,11 +1243,11 @@
       </c>
       <c r="B39">
         <f>MAX((1/(1+EXP(-B38/100)))*10-4, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <f>MAX((1/(1+EXP(-C38/100)))*10-4, 0)</f>
-        <v>0</v>
+        <v>1.6709290496545428</v>
       </c>
       <c r="D39">
         <f>MAX((1/(1+EXP(-D38/100)))*10-4, 0)</f>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B42">
         <f>ABS(B41-B$1)*10*IF(B26&gt;=B41, AVERAGE($B26:$K26), 1)</f>
-        <v>2.7000000000000006</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="C42">
         <f>ABS(C41-C$1)*10*IF(C26&gt;=C41, AVERAGE($B26:$K26), 1)</f>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B44">
         <f>IF(B41&gt;B$1, POWER(B42, 2+B$1*1.5), -POWER(B42, 3+B$1*1.5)*(1+B43))</f>
-        <v>20.685188395038807</v>
+        <v>28.524617330837529</v>
       </c>
       <c r="C44">
         <f>IF(C41&gt;C$1, POWER(C42, 2+C$1*1.5), -POWER(C42, 3+C$1*1.5)*(1+C43))</f>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="F44">
         <f>MAX(-1000, SUM(B44:D44))</f>
-        <v>20.685188395038807</v>
+        <v>28.524617330837529</v>
       </c>
       <c r="H44" t="s">
         <v>7</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="K44">
         <f>MAX((1/(1+EXP(-F44/100)))*10-4, 0) * I44</f>
-        <v>1.5152936661628802</v>
+        <v>1.7083192118175328</v>
       </c>
     </row>
   </sheetData>

--- a/fedml/src/main/java/nl/tudelft/trustchain/fedml/ai/gar/ProBristleTest new.xlsx
+++ b/fedml/src/main/java/nl/tudelft/trustchain/fedml/ai/gar/ProBristleTest new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jverb\StudioProjects\trustchain-superapp\fedml\src\main\java\nl\tudelft\trustchain\fedml\ai\gar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21131528-177D-424F-9625-FA7F6F486BBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197CA6A6-E9B0-42C4-B785-D7871D480A9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{844211C3-7185-423C-9B06-879ED161A981}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="11">
   <si>
     <t>own loss</t>
   </si>
@@ -65,11 +65,17 @@
   <si>
     <t>certainty</t>
   </si>
+  <si>
+    <t>explor fac</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,6 +123,969 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$54:$V$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$V$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0031249995930995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0249997916687494</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0843669918789702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1998934015558174</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3898322068768412</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6709290496545437</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0557514050490688</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5475346060631923</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1325588329667209</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7729986117469103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CCB-4176-BEF3-89FD46660B54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="307256816"/>
+        <c:axId val="307260560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="307256816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307260560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="307260560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307256816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209490</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>72259</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3D7144-5E76-4E2A-9162-B5210D243F6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E1C72C-1D05-4355-8DCC-C2D9B80FA9B3}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1976,106 @@
         <v>3.2589442883808415</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.25</v>
+      </c>
+      <c r="M17">
+        <v>0.5</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>POWER(1-K17, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f>POWER(1-L17, 2)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="M18">
+        <f>POWER(1-M17, 2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="N18">
+        <f>POWER(1-N17, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <f>(1-K18)*(1-K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>-2*POWER(L17, 2) + 2 * L17</f>
+        <v>0.375</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:N19" si="8">-2*POWER(M17, 2) + 2 * M17</f>
+        <v>0.5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <f>(1-K19-K18)*(1-K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>-2*POWER(L17, 2) + 2 * L17</f>
+        <v>0.375</v>
+      </c>
+      <c r="M20">
+        <v>0.25</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:L21" si="9">POWER(K17, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>POWER(L17, 2)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M21">
+        <f>POWER(M17, 2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="N21">
+        <f>POWER(N17, 2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +2117,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +2134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1079,16 +2148,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:C31" si="8">MAX(-100, IF(B28&gt;B$26, POWER(B29, 3 + B26), -POWER(B29, 4+B26)*(1+B30)))</f>
+        <f>MAX(-100, IF(B28&gt;B$26, POWER(B29, 3 + B26), -POWER(B29, 4+B26)*(1+B30)))</f>
         <v>125</v>
       </c>
       <c r="C31">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C31" si="10">MAX(-100, IF(C28&gt;C$26, POWER(C29, 3 + C26), -POWER(C29, 4+C26)*(1+C30)))</f>
         <v>125</v>
       </c>
       <c r="D31">
@@ -1117,7 +2186,7 @@
         <v>2.8851131504498717</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1340,7 +2409,639 @@
         <v>1.7083192118175328</v>
       </c>
     </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0.5</v>
+      </c>
+      <c r="C52">
+        <v>0.5</v>
+      </c>
+      <c r="D52">
+        <v>0.5</v>
+      </c>
+      <c r="E52">
+        <v>0.5</v>
+      </c>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+      <c r="G52">
+        <v>0.5</v>
+      </c>
+      <c r="H52">
+        <v>0.5</v>
+      </c>
+      <c r="I52">
+        <v>0.5</v>
+      </c>
+      <c r="J52">
+        <v>0.5</v>
+      </c>
+      <c r="K52">
+        <v>0.5</v>
+      </c>
+      <c r="L52">
+        <v>0.5</v>
+      </c>
+      <c r="M52">
+        <v>0.5</v>
+      </c>
+      <c r="N52">
+        <v>0.5</v>
+      </c>
+      <c r="O52">
+        <v>0.5</v>
+      </c>
+      <c r="P52">
+        <v>0.5</v>
+      </c>
+      <c r="Q52">
+        <v>0.5</v>
+      </c>
+      <c r="R52">
+        <v>0.5</v>
+      </c>
+      <c r="S52">
+        <v>0.5</v>
+      </c>
+      <c r="T52">
+        <v>0.5</v>
+      </c>
+      <c r="U52">
+        <v>0.5</v>
+      </c>
+      <c r="V52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0.05</v>
+      </c>
+      <c r="D54">
+        <v>0.1</v>
+      </c>
+      <c r="E54">
+        <v>0.15</v>
+      </c>
+      <c r="F54">
+        <v>0.2</v>
+      </c>
+      <c r="G54">
+        <v>0.25</v>
+      </c>
+      <c r="H54">
+        <v>0.3</v>
+      </c>
+      <c r="I54">
+        <v>0.35</v>
+      </c>
+      <c r="J54">
+        <v>0.4</v>
+      </c>
+      <c r="K54">
+        <v>0.45</v>
+      </c>
+      <c r="L54">
+        <v>0.5</v>
+      </c>
+      <c r="M54">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N54">
+        <v>0.6</v>
+      </c>
+      <c r="O54">
+        <v>0.65</v>
+      </c>
+      <c r="P54">
+        <v>0.7</v>
+      </c>
+      <c r="Q54">
+        <v>0.75</v>
+      </c>
+      <c r="R54">
+        <v>0.8</v>
+      </c>
+      <c r="S54">
+        <v>0.85</v>
+      </c>
+      <c r="T54">
+        <v>0.9</v>
+      </c>
+      <c r="U54">
+        <v>0.95</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <f>ABS(B54-B$52) * 10</f>
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:L55" si="11">ABS(C54-C$52) * 10</f>
+        <v>4.5</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="11"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="11"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="11"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f>ABS(M54-M$52) * 10</f>
+        <v>0.50000000000000044</v>
+      </c>
+      <c r="N55">
+        <f t="shared" ref="N55" si="12">ABS(N54-N$52) * 10</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="O55">
+        <f t="shared" ref="O55" si="13">ABS(O54-O$52) * 10</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="P55">
+        <f t="shared" ref="P55" si="14">ABS(P54-P$52) * 10</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" ref="Q55" si="15">ABS(Q54-Q$52) * 10</f>
+        <v>2.5</v>
+      </c>
+      <c r="R55">
+        <f t="shared" ref="R55" si="16">ABS(R54-R$52) * 10</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="S55">
+        <f t="shared" ref="S55" si="17">ABS(S54-S$52) * 10</f>
+        <v>3.5</v>
+      </c>
+      <c r="T55">
+        <f t="shared" ref="T55" si="18">ABS(T54-T$52) * 10</f>
+        <v>4</v>
+      </c>
+      <c r="U55">
+        <f t="shared" ref="U55" si="19">ABS(U54-U$52) * 10</f>
+        <v>4.5</v>
+      </c>
+      <c r="V55">
+        <f t="shared" ref="V55" si="20">ABS(V54-V$52) * 10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <f>MAX(-100, IF(B54&gt;B$52, POWER(B55, 3 + B52), -99999))</f>
+        <v>-100</v>
+      </c>
+      <c r="C56">
+        <f>MAX(-100, IF(C54&gt;C$52, POWER(C55, 3 + C52), -99999))</f>
+        <v>-100</v>
+      </c>
+      <c r="D56">
+        <f>MAX(-100, IF(D54&gt;D$52, POWER(D55, 3 + D52), -99999))</f>
+        <v>-100</v>
+      </c>
+      <c r="E56">
+        <f>MAX(-100, IF(E54&gt;E$52, POWER(E55, 3 + E52), -99999))</f>
+        <v>-100</v>
+      </c>
+      <c r="F56">
+        <f>MAX(-100, IF(F54&gt;F$52, POWER(F55, 3 + F52), -99999))</f>
+        <v>-100</v>
+      </c>
+      <c r="G56">
+        <f>MAX(-100, IF(G54&gt;G$52, POWER(G55, 3 + G52), -99999))</f>
+        <v>-100</v>
+      </c>
+      <c r="H56">
+        <f>MAX(-100, IF(H54&gt;H$52, POWER(H55, 3 + H52), -99999))</f>
+        <v>-100</v>
+      </c>
+      <c r="I56">
+        <f>MAX(-100, IF(I54&gt;I$52, POWER(I55, 3 + I52), -99999))</f>
+        <v>-100</v>
+      </c>
+      <c r="J56">
+        <f>MAX(-100, IF(J54&gt;J$52, POWER(J55, 3 + J52), -99999))</f>
+        <v>-100</v>
+      </c>
+      <c r="K56">
+        <f>MAX(-100, IF(K54&gt;K$52, POWER(K55, 3 + K52), -99999))</f>
+        <v>-100</v>
+      </c>
+      <c r="L56">
+        <f>MAX(-100, IF(L54&gt;L$52, POWER(L55, 3 + L52), -99999))</f>
+        <v>-100</v>
+      </c>
+      <c r="M56">
+        <f>MAX(-100, IF(M54&gt;M$52, POWER(M55, 3), -99999))</f>
+        <v>0.12500000000000033</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56:V56" si="21">MAX(-100, IF(N54&gt;N$52, POWER(N55, 3), -99999))</f>
+        <v>0.99999999999999933</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="21"/>
+        <v>3.3750000000000018</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="21"/>
+        <v>7.9999999999999947</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="21"/>
+        <v>15.625</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="21"/>
+        <v>27.000000000000014</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="21"/>
+        <v>42.875</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="21"/>
+        <v>64</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="21"/>
+        <v>91.125</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="21"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <f>MAX((1/(1+EXP(-B56/100)))*10-4, 0) * 1</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:E57" si="22">MAX((1/(1+EXP(-C56/100)))*10-4, 0) * 1</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57" si="23">MAX((1/(1+EXP(-F56/100)))*10-4, 0) * 1</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ref="G57:H57" si="24">MAX((1/(1+EXP(-G56/100)))*10-4, 0) * 1</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ref="I57" si="25">MAX((1/(1+EXP(-I56/100)))*10-4, 0) * 1</f>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57:K57" si="26">MAX((1/(1+EXP(-J56/100)))*10-4, 0) * 1</f>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" ref="L57" si="27">MAX((1/(1+EXP(-L56/100)))*10-4, 0) * 1</f>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <f>MAX((1/(1+EXP(-M56/100)))*10-4, 0) * 1</f>
+        <v>1.0031249995930995</v>
+      </c>
+      <c r="N57">
+        <f t="shared" ref="N57" si="28">MAX((1/(1+EXP(-N56/100)))*10-4, 0) * 1</f>
+        <v>1.0249997916687494</v>
+      </c>
+      <c r="O57">
+        <f t="shared" ref="O57" si="29">MAX((1/(1+EXP(-O56/100)))*10-4, 0) * 1</f>
+        <v>1.0843669918789702</v>
+      </c>
+      <c r="P57">
+        <f t="shared" ref="P57" si="30">MAX((1/(1+EXP(-P56/100)))*10-4, 0) * 1</f>
+        <v>1.1998934015558174</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" ref="Q57" si="31">MAX((1/(1+EXP(-Q56/100)))*10-4, 0) * 1</f>
+        <v>1.3898322068768412</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ref="R57" si="32">MAX((1/(1+EXP(-R56/100)))*10-4, 0) * 1</f>
+        <v>1.6709290496545437</v>
+      </c>
+      <c r="S57">
+        <f t="shared" ref="S57" si="33">MAX((1/(1+EXP(-S56/100)))*10-4, 0) * 1</f>
+        <v>2.0557514050490688</v>
+      </c>
+      <c r="T57">
+        <f t="shared" ref="T57" si="34">MAX((1/(1+EXP(-T56/100)))*10-4, 0) * 1</f>
+        <v>2.5475346060631923</v>
+      </c>
+      <c r="U57">
+        <f t="shared" ref="U57" si="35">MAX((1/(1+EXP(-U56/100)))*10-4, 0) * 1</f>
+        <v>3.1325588329667209</v>
+      </c>
+      <c r="V57">
+        <f t="shared" ref="V57" si="36">MAX((1/(1+EXP(-V56/100)))*10-4, 0) * 1</f>
+        <v>3.7729986117469103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <f>ABS(B70-B$68) * 10</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <f>MAX(-100, IF(B70&gt;B$52, POWER(B71, 3 + B68), -POWER(B71, 4+B68)*(1+B72)))</f>
+        <v>-0.999999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <f>MAX((1/(1+EXP(-B73/100)))*10-4, 0) * 1</f>
+        <v>0.97500020833125056</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <f>ABS(B76-B$68) * 10</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <f>MAX(0, 50*(B$68-B$70))</f>
+        <v>4.9999999999999991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <f>MAX(-100, IF(B76&gt;B$52, POWER(B77, 3 + B68), -POWER(B77, 4+B68)*(1+B78)))</f>
+        <v>-5.9999999999999929</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <f>MAX((1/(1+EXP(-B79/100)))*10-4, 0) * 1</f>
+        <v>0.85004498380589943</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <f>ABS(B82-B$68) * 10</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <f>MAX(0, 50*(B$68*2-B$70-B76))</f>
+        <v>9.9999999999999982</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <f>MAX(-100, IF(B82&gt;B$52, POWER(B83, 3 + B68), -POWER(B83, 4+B68)*(1+B84)))</f>
+        <v>-10.999999999999988</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <f>MAX((1/(1+EXP(-B85/100)))*10-4, 0) * 1</f>
+        <v>0.72527695655406355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <f>ABS(B88-B$68) * 10</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <f>MAX(0, 50*(B$68*3-B$70-B76-B82))</f>
+        <v>15.000000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <f>MAX(-100, IF(B88&gt;B$52, POWER(B89, 3 + B68), -POWER(B89, 4+B68)*(1+B90)))</f>
+        <v>-15.999999999999984</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <f>MAX((1/(1+EXP(-B91/100)))*10-4, 0) * 1</f>
+        <v>0.600851154444344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <f>ABS(B94-B$68) * 10</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <f>MAX(0, 50*(B$68*4-B$70-B76-B82-B94))</f>
+        <v>20.000000000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <f>MAX(-100, IF(B94&gt;B$52, POWER(B95, 3 + B68), -POWER(B95, 4+B68)*(1+B96)))</f>
+        <v>-20.999999999999986</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <f>MAX((1/(1+EXP(-B97/100)))*10-4, 0) * 1</f>
+        <v>0.47692090425674838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>